--- a/ANUL3/sem2/ps/Tabel-Laborator1.xlsx
+++ b/ANUL3/sem2/ps/Tabel-Laborator1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blabla\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blabla\Downloads\uni\ANUL3\sem2\ps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E943ABC0-5646-4647-B9E3-04746C6C8B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C6E079-22E7-4A3C-94F8-BBD3DAE9F835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="3660" windowWidth="21600" windowHeight="11205" xr2:uid="{A2F4D63C-74A3-46B9-BB06-DF5A42B932CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2F4D63C-74A3-46B9-BB06-DF5A42B932CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,30 +34,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Ci</t>
-  </si>
-  <si>
-    <t>Psb</t>
-  </si>
-  <si>
-    <t>Psr</t>
-  </si>
-  <si>
-    <t>Csb</t>
-  </si>
-  <si>
-    <t>Csr</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>lantul ergotic</t>
   </si>
   <si>
     <t xml:space="preserve">lantul ergotic cu mutarea </t>
+  </si>
+  <si>
+    <t>Psb1</t>
+  </si>
+  <si>
+    <t>Psr1</t>
+  </si>
+  <si>
+    <t>Csb1</t>
+  </si>
+  <si>
+    <t>Csr1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Psb2</t>
+  </si>
+  <si>
+    <t>Psr2</t>
+  </si>
+  <si>
+    <t>Csr2</t>
+  </si>
+  <si>
+    <t>Csb2</t>
+  </si>
+  <si>
+    <t>C2</t>
   </si>
 </sst>
 </file>
@@ -438,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -491,17 +506,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -537,9 +545,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -567,6 +572,4972 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ro-RO"/>
+              <a:t>Probabilitatea stării bune</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Psb1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.44000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40269999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41240000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3800-4B60-B506-7FCA8D294EC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Psb2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$25:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.318</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3866</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4032</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40579999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3800-4B60-B506-7FCA8D294EC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1834255488"/>
+        <c:axId val="1834250688"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1834255488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1834250688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1834250688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1834255488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42543307086614168"/>
+          <c:y val="0.89409667541557303"/>
+          <c:w val="0.27953368328958877"/>
+          <c:h val="7.8125546806649182E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ro-RO"/>
+              <a:t>Probabilitatea stării rele</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Psr1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59720000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5875999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58920000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C633-419A-9B0E-9F0802C0895D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Psr2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$26:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68199999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61339999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59679999999999989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59429999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C633-419A-9B0E-9F0802C0895D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1834252128"/>
+        <c:axId val="1834241088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1834252128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1834241088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1834241088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1834252128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ro-RO"/>
+              <a:t>Costul</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ro-RO" baseline="0"/>
+              <a:t> stării bune</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Csb1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>18.400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.056999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.559000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.578000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5052-4095-873A-B09173D35DF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Csb2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.809999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.225999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.527000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.012999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5052-4095-873A-B09173D35DF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1834249248"/>
+        <c:axId val="1834253088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1834249248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1834253088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1834253088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1834249248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ro-RO"/>
+              <a:t>Costul stării</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ro-RO" baseline="0"/>
+              <a:t> rele</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Csr1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>23.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.050999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.821000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.626999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.573</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A59-4AA2-B937-B7E82ADE4DC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Csr2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$28:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>31.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.942</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9A59-4AA2-B937-B7E82ADE4DC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1834270368"/>
+        <c:axId val="1834290048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1834270368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1834290048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1834290048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1834270368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ro-RO"/>
+              <a:t>Costul total</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>42.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.301000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.878</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.151000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA6A-4A10-AA22-EDA755D52C94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$29:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>37.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.215999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.826999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.954999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DA6A-4A10-AA22-EDA755D52C94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1834272288"/>
+        <c:axId val="1834290528"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1834272288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1834290528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1834290528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1834272288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>233362</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA96205-B052-C6CD-B429-45A17E96F86C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4A3523D-4104-1672-6931-50779AD39F90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0416C8C7-228A-B770-13B4-4BCA4F256E59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>204787</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{848FC0CF-E3EC-CD27-6B48-41F768529141}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E642200C-F115-8667-399D-092939850561}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -888,8 +5859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4761B02-CC79-4882-AB5E-D5B5F9BA5EBE}">
   <dimension ref="A2:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X35" sqref="X35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,7 +5870,7 @@
   <sheetData>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="21" x14ac:dyDescent="0.35">
@@ -926,26 +5897,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="32">
+    <row r="4" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="29">
         <v>1</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="28">
         <v>0.16</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="23">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="23">
         <v>5.7799999999999997E-2</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="23">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="23">
         <v>4.3700000000000003E-2</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="23">
         <v>4.1399999999999999E-2</v>
       </c>
       <c r="H4" s="17">
@@ -953,318 +5924,318 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="34">
+      <c r="A5" s="31">
         <v>2</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="30">
         <v>0.09</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="24">
         <v>0.29099999999999998</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="24">
         <v>0.16850000000000001</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="24">
         <v>0.21410000000000001</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="24">
         <v>0.19789999999999999</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="24">
         <v>0.2021</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="8">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="32">
+      <c r="A6" s="29">
         <v>3</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="28">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="23">
         <v>0.33800000000000002</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="23">
         <v>0.36120000000000002</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="23">
         <v>0.36059999999999998</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="23">
         <v>0.36870000000000003</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="23">
         <v>0.36940000000000001</v>
       </c>
       <c r="H6" s="17">
         <v>60</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
     </row>
     <row r="7" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="34">
+      <c r="A7" s="31">
         <v>4</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="30">
         <v>0.41</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="24">
         <v>0.28499999999999998</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="24">
         <v>0.3851</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="24">
         <v>0.36220000000000002</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="24">
         <v>0.37590000000000001</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="24">
         <v>0.37609999999999999</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="8">
         <v>40</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
     </row>
     <row r="8" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="35">
+      <c r="A8" s="31">
         <v>5</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="30">
         <v>0.06</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="24">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="24">
         <v>1.7399999999999999E-2</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="24">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="24">
         <v>6.3E-3</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="24">
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="H8" s="8">
         <v>80</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
     </row>
     <row r="9" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="37">
+      <c r="A9" s="33">
         <v>6</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="32">
         <v>0</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="27">
         <v>0.04</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="27">
         <v>0.01</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="27">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="27">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="27">
         <v>6.8999999999999999E-3</v>
       </c>
       <c r="H9" s="12">
         <v>20</v>
       </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
     </row>
     <row r="10" spans="1:15" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="24">
-        <f>B4+B6</f>
+      <c r="A10" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="21">
+        <f t="shared" ref="B10:G10" si="0">B4+B6</f>
         <v>0.44000000000000006</v>
       </c>
-      <c r="C10" s="25">
-        <f>C4+C6</f>
+      <c r="C10" s="22">
+        <f t="shared" si="0"/>
         <v>0.36600000000000005</v>
       </c>
-      <c r="D10" s="25">
-        <f>D4+D6</f>
+      <c r="D10" s="22">
+        <f t="shared" si="0"/>
         <v>0.41900000000000004</v>
       </c>
-      <c r="E10" s="25">
-        <f>E4+E6</f>
+      <c r="E10" s="22">
+        <f t="shared" si="0"/>
         <v>0.40269999999999995</v>
       </c>
-      <c r="F10" s="25">
-        <f>F4+F6</f>
+      <c r="F10" s="22">
+        <f t="shared" si="0"/>
         <v>0.41240000000000004</v>
       </c>
-      <c r="G10" s="25">
-        <f>G4+G6</f>
+      <c r="G10" s="22">
+        <f t="shared" si="0"/>
         <v>0.4108</v>
       </c>
-      <c r="H10" s="29"/>
+      <c r="H10" s="26"/>
     </row>
     <row r="11" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" s="6">
-        <f>B5+B7+B8+B9</f>
+        <f t="shared" ref="B11:G11" si="1">B5+B7+B8+B9</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="C11" s="7">
-        <f>C5+C7+C8+C9</f>
+        <f t="shared" si="1"/>
         <v>0.63400000000000001</v>
       </c>
       <c r="D11" s="7">
-        <f>D5+D7+D8+D9</f>
+        <f t="shared" si="1"/>
         <v>0.58099999999999996</v>
       </c>
       <c r="E11" s="7">
-        <f>E5+E7+E8+E9</f>
+        <f t="shared" si="1"/>
         <v>0.59720000000000006</v>
       </c>
       <c r="F11" s="7">
-        <f>F5+F7+F8+F9</f>
+        <f t="shared" si="1"/>
         <v>0.5875999999999999</v>
       </c>
       <c r="G11" s="7">
-        <f>G5+G7+G8+G9</f>
+        <f t="shared" si="1"/>
         <v>0.58920000000000006</v>
       </c>
       <c r="H11" s="8"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
     </row>
     <row r="12" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" s="6">
-        <f>B4*10+B6*60</f>
+        <f t="shared" ref="B12:G12" si="2">B4*10+B6*60</f>
         <v>18.400000000000002</v>
       </c>
       <c r="C12" s="7">
-        <f>C4*10+C6*60</f>
+        <f t="shared" si="2"/>
         <v>20.560000000000002</v>
       </c>
       <c r="D12" s="7">
-        <f>D4*10+D6*60</f>
+        <f t="shared" si="2"/>
         <v>22.25</v>
       </c>
       <c r="E12" s="7">
-        <f>E4*10+E6*60</f>
+        <f t="shared" si="2"/>
         <v>22.056999999999999</v>
       </c>
       <c r="F12" s="7">
-        <f>F4*10+F6*60</f>
+        <f t="shared" si="2"/>
         <v>22.559000000000001</v>
       </c>
       <c r="G12" s="7">
-        <f>G4*10+G6*60</f>
+        <f t="shared" si="2"/>
         <v>22.578000000000003</v>
       </c>
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B13" s="14">
-        <f>B5*30+B7*40+B8*80+B9*20</f>
+        <f t="shared" ref="B13:G13" si="3">B5*30+B7*40+B8*80+B9*20</f>
         <v>23.9</v>
       </c>
       <c r="C13" s="15">
-        <f>C5*30+C7*40+C8*80+C9*20</f>
+        <f t="shared" si="3"/>
         <v>22.369999999999997</v>
       </c>
       <c r="D13" s="15">
-        <f>D5*30+D7*40+D8*80+D9*20</f>
+        <f t="shared" si="3"/>
         <v>22.050999999999998</v>
       </c>
       <c r="E13" s="15">
-        <f>E5*30+E7*40+E8*80+E9*20</f>
+        <f t="shared" si="3"/>
         <v>21.821000000000002</v>
       </c>
       <c r="F13" s="15">
-        <f>F5*30+F7*40+F8*80+F9*20</f>
+        <f t="shared" si="3"/>
         <v>21.626999999999999</v>
       </c>
       <c r="G13" s="15">
-        <f>G5*30+G7*40+G8*80+G9*20</f>
+        <f t="shared" si="3"/>
         <v>21.573</v>
       </c>
       <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B14" s="10">
-        <f>B12+B13</f>
+        <f t="shared" ref="B14:G14" si="4">B12+B13</f>
         <v>42.3</v>
       </c>
       <c r="C14" s="11">
-        <f>C12+C13</f>
+        <f t="shared" si="4"/>
         <v>42.93</v>
       </c>
       <c r="D14" s="11">
-        <f>D12+D13</f>
+        <f t="shared" si="4"/>
         <v>44.301000000000002</v>
       </c>
       <c r="E14" s="11">
-        <f>E12+E13</f>
+        <f t="shared" si="4"/>
         <v>43.878</v>
       </c>
       <c r="F14" s="11">
-        <f>F12+F13</f>
+        <f t="shared" si="4"/>
         <v>44.186</v>
       </c>
       <c r="G14" s="11">
-        <f>G12+G13</f>
+        <f t="shared" si="4"/>
         <v>44.151000000000003</v>
       </c>
       <c r="H14" s="12"/>
     </row>
     <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="21" x14ac:dyDescent="0.35">
@@ -1292,25 +6263,25 @@
       </c>
     </row>
     <row r="19" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A19" s="21">
+      <c r="A19" s="19">
         <v>1</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="23">
         <v>0.26</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="23">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="23">
         <v>8.9399999999999993E-2</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="23">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="23">
         <v>5.33E-2</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="23">
         <v>4.6699999999999998E-2</v>
       </c>
       <c r="H19" s="17">
@@ -1318,51 +6289,51 @@
       </c>
     </row>
     <row r="20" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A20" s="22">
+      <c r="A20" s="20">
         <v>2</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="24">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="24">
         <v>0.31</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="24">
         <v>0.17499999999999999</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="24">
         <v>0.221</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="24">
         <v>0.20019999999999999</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="24">
         <v>0.20399999999999999</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="8">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A21" s="21">
+      <c r="A21" s="19">
         <v>3</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="23">
         <v>0.06</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="23">
         <v>0.23400000000000001</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="23">
         <v>0.29859999999999998</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="23">
         <v>0.32719999999999999</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="23">
         <v>0.34989999999999999</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="23">
         <v>0.35909999999999997</v>
       </c>
       <c r="H21" s="17">
@@ -1370,57 +6341,57 @@
       </c>
     </row>
     <row r="22" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A22" s="22">
+      <c r="A22" s="20">
         <v>4</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="24">
         <v>0.2</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="24">
         <v>0.16</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="24">
         <v>0.32419999999999999</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="24">
         <v>0.32419999999999999</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="24">
         <v>0.35659999999999997</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="24">
         <v>0.36480000000000001</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="8">
         <v>40</v>
       </c>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
     </row>
     <row r="23" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A23" s="23">
+      <c r="A23" s="20">
         <v>5</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="24">
         <v>0.21</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="24">
         <v>0.10199999999999999</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="24">
         <v>6.3600000000000004E-2</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="24">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="F23" s="27">
+      <c r="F23" s="24">
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="24">
         <v>1.2E-2</v>
       </c>
       <c r="H23" s="8">
@@ -1428,276 +6399,277 @@
       </c>
     </row>
     <row r="24" spans="1:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="38">
+      <c r="A24" s="34">
         <v>6</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="24">
         <v>0.13</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="24">
         <v>0.11</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="24">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="24">
         <v>3.44E-2</v>
       </c>
-      <c r="F24" s="27">
+      <c r="F24" s="24">
         <v>1.95E-2</v>
       </c>
-      <c r="G24" s="27">
+      <c r="G24" s="24">
         <v>1.35E-2</v>
       </c>
       <c r="H24" s="12">
         <v>20</v>
       </c>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
     </row>
     <row r="25" spans="1:23" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="24">
-        <f>B19+B21</f>
+      <c r="A25" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="21">
+        <f t="shared" ref="B25:G25" si="5">B19+B21</f>
         <v>0.32</v>
       </c>
-      <c r="C25" s="25">
-        <f>C19+C21</f>
+      <c r="C25" s="22">
+        <f t="shared" si="5"/>
         <v>0.318</v>
       </c>
-      <c r="D25" s="25">
-        <f>D19+D21</f>
+      <c r="D25" s="22">
+        <f t="shared" si="5"/>
         <v>0.38799999999999996</v>
       </c>
-      <c r="E25" s="25">
-        <f>E19+E21</f>
+      <c r="E25" s="22">
+        <f t="shared" si="5"/>
         <v>0.3866</v>
       </c>
-      <c r="F25" s="25">
-        <f>F19+F21</f>
+      <c r="F25" s="22">
+        <f t="shared" si="5"/>
         <v>0.4032</v>
       </c>
-      <c r="G25" s="25">
-        <f>G19+G21</f>
+      <c r="G25" s="22">
+        <f t="shared" si="5"/>
         <v>0.40579999999999999</v>
       </c>
-      <c r="H25" s="29"/>
+      <c r="H25" s="26"/>
     </row>
     <row r="26" spans="1:23" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B26" s="6">
-        <f>B20+B22+B23+B24</f>
+        <f t="shared" ref="B26:G26" si="6">B20+B22+B23+B24</f>
         <v>0.68</v>
       </c>
       <c r="C26" s="7">
-        <f>C20+C22+C23+C24</f>
+        <f t="shared" si="6"/>
         <v>0.68199999999999994</v>
       </c>
       <c r="D26" s="7">
-        <f>D20+D22+D23+D24</f>
+        <f t="shared" si="6"/>
         <v>0.61199999999999999</v>
       </c>
       <c r="E26" s="7">
-        <f>E20+E22+E23+E24</f>
+        <f t="shared" si="6"/>
         <v>0.61339999999999995</v>
       </c>
       <c r="F26" s="7">
-        <f>F20+F22+F23+F24</f>
+        <f t="shared" si="6"/>
         <v>0.59679999999999989</v>
       </c>
       <c r="G26" s="7">
-        <f>G20+G22+G23+G24</f>
+        <f t="shared" si="6"/>
         <v>0.59429999999999994</v>
       </c>
       <c r="H26" s="8"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
     </row>
     <row r="27" spans="1:23" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B27" s="6">
-        <f>B19*10+B21*60</f>
+        <f t="shared" ref="B27:G27" si="7">B19*10+B21*60</f>
         <v>6.1999999999999993</v>
       </c>
       <c r="C27" s="7">
-        <f>C19*10+C21*60</f>
+        <f t="shared" si="7"/>
         <v>14.88</v>
       </c>
       <c r="D27" s="7">
-        <f>D19*10+D21*60</f>
+        <f t="shared" si="7"/>
         <v>18.809999999999995</v>
       </c>
       <c r="E27" s="7">
-        <f>E19*10+E21*60</f>
+        <f t="shared" si="7"/>
         <v>20.225999999999999</v>
       </c>
       <c r="F27" s="7">
-        <f>F19*10+F21*60</f>
+        <f t="shared" si="7"/>
         <v>21.527000000000001</v>
       </c>
       <c r="G27" s="7">
-        <f>G19*10+G21*60</f>
+        <f t="shared" si="7"/>
         <v>22.012999999999998</v>
       </c>
       <c r="H27" s="8"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
     </row>
     <row r="28" spans="1:23" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B28" s="14">
-        <f>B20*30+B22*40+B23*80+B24*20</f>
+        <f t="shared" ref="B28:G28" si="8">B20*30+B22*40+B23*80+B24*20</f>
         <v>31.6</v>
       </c>
       <c r="C28" s="15">
-        <f>C20*30+C22*40+C23*80+C24*20</f>
+        <f t="shared" si="8"/>
         <v>26.06</v>
       </c>
       <c r="D28" s="15">
-        <f>D20*30+D22*40+D23*80+D24*20</f>
+        <f t="shared" si="8"/>
         <v>24.29</v>
       </c>
       <c r="E28" s="15">
-        <f>E20*30+E22*40+E23*80+E24*20</f>
+        <f t="shared" si="8"/>
         <v>22.99</v>
       </c>
       <c r="F28" s="15">
-        <f>F20*30+F22*40+F23*80+F24*20</f>
+        <f t="shared" si="8"/>
         <v>22.3</v>
       </c>
       <c r="G28" s="15">
-        <f>G20*30+G22*40+G23*80+G24*20</f>
+        <f t="shared" si="8"/>
         <v>21.942</v>
       </c>
       <c r="H28" s="16"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
     </row>
     <row r="29" spans="1:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="9" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B29" s="10">
-        <f>B27+B28</f>
+        <f t="shared" ref="B29:G29" si="9">B27+B28</f>
         <v>37.799999999999997</v>
       </c>
       <c r="C29" s="11">
-        <f>C27+C28</f>
+        <f t="shared" si="9"/>
         <v>40.94</v>
       </c>
       <c r="D29" s="11">
-        <f>D27+D28</f>
+        <f t="shared" si="9"/>
         <v>43.099999999999994</v>
       </c>
       <c r="E29" s="11">
-        <f>E27+E28</f>
+        <f t="shared" si="9"/>
         <v>43.215999999999994</v>
       </c>
       <c r="F29" s="11">
-        <f>F27+F28</f>
+        <f t="shared" si="9"/>
         <v>43.826999999999998</v>
       </c>
       <c r="G29" s="11">
-        <f>G27+G28</f>
+        <f t="shared" si="9"/>
         <v>43.954999999999998</v>
       </c>
       <c r="H29" s="12"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="20"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
     </row>
     <row r="33" spans="17:23" x14ac:dyDescent="0.25">
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="20"/>
-      <c r="W33" s="20"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
     </row>
     <row r="34" spans="17:23" x14ac:dyDescent="0.25">
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
+      <c r="W34" s="18"/>
     </row>
     <row r="35" spans="17:23" x14ac:dyDescent="0.25">
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="20"/>
-      <c r="W35" s="20"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
